--- a/Data Science Plan.xlsx
+++ b/Data Science Plan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://schneiderelectric-my.sharepoint.com/personal/sesa702302_se_com/Documents/Personal/0.0 Data Science Personal/1.0 Python/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://schneiderelectric-my.sharepoint.com/personal/sesa702302_se_com/Documents/Personal/0.0 Data Science Personal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="85" documentId="11_F25DC773A252ABDACC1048AF59DA42C65BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{602A8C3D-E392-4B32-BD2B-44CCB2C41E78}"/>
+  <xr:revisionPtr revIDLastSave="106" documentId="11_F25DC773A252ABDACC1048AF59DA42C65BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F83DEC2-E9F0-46EC-916E-02C7C3B2BD80}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="37">
   <si>
     <t>S. No.</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Details</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
     <t>Basics of Python Programming</t>
   </si>
   <si>
@@ -124,6 +121,21 @@
   </si>
   <si>
     <t>6th july 2024</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Completion Date</t>
+  </si>
+  <si>
+    <t>Schedule Date</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Time Complexity of Python programming</t>
   </si>
 </sst>
 </file>
@@ -147,7 +159,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -157,6 +169,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -188,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -200,6 +218,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -480,30 +500,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" style="4" customWidth="1"/>
     <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="71.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.21875" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
@@ -514,226 +536,292 @@
       <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="H4" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="D13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
